--- a/result/without_base/12/arousal/s05_1.xlsx
+++ b/result/without_base/12/arousal/s05_1.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.5499999821186066</v>
+        <v>0.5824999809265137</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4974999874830246</v>
+        <v>0.497500017285347</v>
       </c>
       <c r="C2" t="n">
-        <v>41783.515625</v>
+        <v>41750.21875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.5292045474052429</v>
       </c>
       <c r="E2" t="n">
-        <v>41777.94460227273</v>
+        <v>41750.29900568182</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4350000023841858</v>
+        <v>0.5075000077486038</v>
       </c>
       <c r="C3" t="n">
-        <v>41031.697265625</v>
+        <v>41018.126953125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5523863543163646</v>
+        <v>0.5263636410236359</v>
       </c>
       <c r="E3" t="n">
-        <v>41029.00426136364</v>
+        <v>41017.92471590909</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5225000083446503</v>
+        <v>0.5174999982118607</v>
       </c>
       <c r="C4" t="n">
-        <v>40308.884765625</v>
+        <v>40271.177734375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5126136378808455</v>
+        <v>0.5530681826851584</v>
       </c>
       <c r="E4" t="n">
-        <v>40306.84907670454</v>
+        <v>40270.12464488636</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5275000035762787</v>
+        <v>0.5249999910593033</v>
       </c>
       <c r="C5" t="n">
-        <v>39581.787109375</v>
+        <v>39549.55859375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5354545441540804</v>
+        <v>0.4911363666707819</v>
       </c>
       <c r="E5" t="n">
-        <v>39579.71342329546</v>
+        <v>39548.50568181818</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +640,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4575000107288361</v>
+        <v>0.4599999934434891</v>
       </c>
       <c r="C6" t="n">
-        <v>38871.7265625</v>
+        <v>38824.84765625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5546590848402544</v>
+        <v>0.5634090954607184</v>
       </c>
       <c r="E6" t="n">
-        <v>38870.28799715909</v>
+        <v>38823.39701704546</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +657,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4625000059604645</v>
+        <v>0.4925000071525574</v>
       </c>
       <c r="C7" t="n">
-        <v>38164.416015625</v>
+        <v>38120.2890625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5823863690549677</v>
+        <v>0.5576136328957297</v>
       </c>
       <c r="E7" t="n">
-        <v>38162.22869318182</v>
+        <v>38118.09481534091</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +674,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5275000035762787</v>
+        <v>0.4925000071525574</v>
       </c>
       <c r="C8" t="n">
-        <v>37466.609375</v>
+        <v>37419.787109375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5857954512942921</v>
+        <v>0.5964772701263428</v>
       </c>
       <c r="E8" t="n">
-        <v>37464.99431818182</v>
+        <v>37417.63991477273</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +691,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5374999940395355</v>
+        <v>0.5800000131130219</v>
       </c>
       <c r="C9" t="n">
-        <v>36780.6015625</v>
+        <v>36729.453125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6055681868032976</v>
+        <v>0.603750001300465</v>
       </c>
       <c r="E9" t="n">
-        <v>36779.45525568182</v>
+        <v>36728.22301136364</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +708,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5425000190734863</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C10" t="n">
-        <v>36103.203125</v>
+        <v>36051.046875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.629772733558308</v>
+        <v>0.5970454541119662</v>
       </c>
       <c r="E10" t="n">
-        <v>36101.54794034091</v>
+        <v>36049.69140625</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4450000077486038</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="C11" t="n">
-        <v>35438.03515625</v>
+        <v>35381.62890625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5752272714268077</v>
+        <v>0.5888636437329379</v>
       </c>
       <c r="E11" t="n">
-        <v>35436.02663352273</v>
+        <v>35380.41974431818</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4750000089406967</v>
+        <v>0.5350000113248825</v>
       </c>
       <c r="C12" t="n">
-        <v>34784.248046875</v>
+        <v>34723.80078125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5638636350631714</v>
+        <v>0.6028409112583507</v>
       </c>
       <c r="E12" t="n">
-        <v>34782.14240056818</v>
+        <v>34722.64879261364</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +759,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5</v>
+        <v>0.5349999964237213</v>
       </c>
       <c r="C13" t="n">
-        <v>34135.845703125</v>
+        <v>34075.189453125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.634999995881861</v>
+        <v>0.6244318105957725</v>
       </c>
       <c r="E13" t="n">
-        <v>34133.64950284091</v>
+        <v>34073.89914772727</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +776,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5575000047683716</v>
+        <v>0.4999999850988388</v>
       </c>
       <c r="C14" t="n">
-        <v>33500.70703125</v>
+        <v>33438.62890625</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6228409084406766</v>
+        <v>0.5920454480431296</v>
       </c>
       <c r="E14" t="n">
-        <v>33498.72620738636</v>
+        <v>33436.95596590909</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +793,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5550000071525574</v>
+        <v>0.4975000023841858</v>
       </c>
       <c r="C15" t="n">
-        <v>32875.5078125</v>
+        <v>32811.408203125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.629431816664609</v>
+        <v>0.6265909075737</v>
       </c>
       <c r="E15" t="n">
-        <v>32873.61292613636</v>
+        <v>32809.86292613636</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +810,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4825000017881393</v>
+        <v>0.5550000071525574</v>
       </c>
       <c r="C16" t="n">
-        <v>32260.4794921875</v>
+        <v>32194.23828125</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6226136359301481</v>
+        <v>0.6480681896209717</v>
       </c>
       <c r="E16" t="n">
-        <v>32258.501953125</v>
+        <v>32192.88707386364</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +827,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4749999940395355</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C17" t="n">
-        <v>31655.3154296875</v>
+        <v>31588.5078125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6212500008669767</v>
+        <v>0.5990909175439314</v>
       </c>
       <c r="E17" t="n">
-        <v>31653.47887073864</v>
+        <v>31587.10706676136</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +844,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5324999988079071</v>
+        <v>0.5199999958276749</v>
       </c>
       <c r="C18" t="n">
-        <v>31060.78125</v>
+        <v>30991.6826171875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6427272774956443</v>
+        <v>0.6664772792295977</v>
       </c>
       <c r="E18" t="n">
-        <v>31058.54936079546</v>
+        <v>30990.43607954546</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +861,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4950000047683716</v>
+        <v>0.5324999839067459</v>
       </c>
       <c r="C19" t="n">
-        <v>30476.396484375</v>
+        <v>30405.5068359375</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6362500082362782</v>
+        <v>0.6612499952316284</v>
       </c>
       <c r="E19" t="n">
-        <v>30474.22017045454</v>
+        <v>30404.34943181818</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +878,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4874999970197678</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C20" t="n">
-        <v>29900.5810546875</v>
+        <v>29829.6357421875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6364772753282026</v>
+        <v>0.6393181844191118</v>
       </c>
       <c r="E20" t="n">
-        <v>29898.50124289773</v>
+        <v>29828.20862926136</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +895,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4999999850988388</v>
+        <v>0.5049999952316284</v>
       </c>
       <c r="C21" t="n">
-        <v>29335.458984375</v>
+        <v>29262.9404296875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6012499982660467</v>
+        <v>0.665795461698012</v>
       </c>
       <c r="E21" t="n">
-        <v>29333.60493607954</v>
+        <v>29261.81782670454</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +912,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4874999821186066</v>
+        <v>0.5424999892711639</v>
       </c>
       <c r="C22" t="n">
-        <v>28779.7529296875</v>
+        <v>28706.80859375</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6630681915716692</v>
+        <v>0.6681818257678639</v>
       </c>
       <c r="E22" t="n">
-        <v>28777.86097301136</v>
+        <v>28705.66566051136</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +929,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5275000035762787</v>
+        <v>0.4974999874830246</v>
       </c>
       <c r="C23" t="n">
-        <v>28233.87890625</v>
+        <v>28159.9541015625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6406818303194913</v>
+        <v>0.6557954549789429</v>
       </c>
       <c r="E23" t="n">
-        <v>28232.14399857954</v>
+        <v>28158.90252130682</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +946,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4950000047683716</v>
+        <v>0.5224999934434891</v>
       </c>
       <c r="C24" t="n">
-        <v>27697.220703125</v>
+        <v>27622.3232421875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6503409147262573</v>
+        <v>0.6836363619024103</v>
       </c>
       <c r="E24" t="n">
-        <v>27695.46413352273</v>
+        <v>27621.33522727273</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +963,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4950000047683716</v>
+        <v>0.5249999761581421</v>
       </c>
       <c r="C25" t="n">
-        <v>27169.537109375</v>
+        <v>27094.16796875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6598863655870612</v>
+        <v>0.6840909069234674</v>
       </c>
       <c r="E25" t="n">
-        <v>27167.994140625</v>
+        <v>27093.22638494318</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +980,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5149999856948853</v>
+        <v>0.5374999940395355</v>
       </c>
       <c r="C26" t="n">
-        <v>26650.8837890625</v>
+        <v>26575.6318359375</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6947727203369141</v>
+        <v>0.6707954623482444</v>
       </c>
       <c r="E26" t="n">
-        <v>26649.67897727273</v>
+        <v>26574.56338778409</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +997,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5149999856948853</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C27" t="n">
-        <v>26141.951171875</v>
+        <v>26066.0224609375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6877272616733204</v>
+        <v>0.6802272634072737</v>
       </c>
       <c r="E27" t="n">
-        <v>26140.55930397727</v>
+        <v>26064.984375</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1014,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5324999988079071</v>
+        <v>0.5199999809265137</v>
       </c>
       <c r="C28" t="n">
-        <v>25641.7607421875</v>
+        <v>25565.5849609375</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7040909149430015</v>
+        <v>0.6811363534493879</v>
       </c>
       <c r="E28" t="n">
-        <v>25640.24307528409</v>
+        <v>25564.54563210227</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1031,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5275000035762787</v>
+        <v>0.5649999976158142</v>
       </c>
       <c r="C29" t="n">
-        <v>25150.3935546875</v>
+        <v>25073.6865234375</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6704545454545454</v>
+        <v>0.6880681839856234</v>
       </c>
       <c r="E29" t="n">
-        <v>25149.00497159091</v>
+        <v>25072.60120738636</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1048,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4774999916553497</v>
+        <v>0.5049999952316284</v>
       </c>
       <c r="C30" t="n">
-        <v>24667.546875</v>
+        <v>24590.6318359375</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6501136422157288</v>
+        <v>0.7223863710056652</v>
       </c>
       <c r="E30" t="n">
-        <v>24666.27894176136</v>
+        <v>24589.54705255682</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1065,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.489999994635582</v>
+        <v>0.5474999845027924</v>
       </c>
       <c r="C31" t="n">
-        <v>24193.4541015625</v>
+        <v>24116.42578125</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6439772735942494</v>
+        <v>0.7113636406985197</v>
       </c>
       <c r="E31" t="n">
-        <v>24192.19886363636</v>
+        <v>24115.27574573864</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1082,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.5425000041723251</v>
       </c>
       <c r="C32" t="n">
-        <v>23727.3515625</v>
+        <v>23650.6845703125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7015909119085832</v>
+        <v>0.6985227303071455</v>
       </c>
       <c r="E32" t="n">
-        <v>23726.09854403409</v>
+        <v>23649.49928977273</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1099,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5575000047683716</v>
+        <v>0.4474999904632568</v>
       </c>
       <c r="C33" t="n">
-        <v>23270.0869140625</v>
+        <v>23193.1015625</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6820454489101063</v>
+        <v>0.6826136383143339</v>
       </c>
       <c r="E33" t="n">
-        <v>23268.86292613636</v>
+        <v>23191.96608664773</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1116,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.4999999850988388</v>
+        <v>0.5174999982118607</v>
       </c>
       <c r="C34" t="n">
-        <v>22820.5048828125</v>
+        <v>22743.43359375</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6943181915716692</v>
+        <v>0.7102272727272727</v>
       </c>
       <c r="E34" t="n">
-        <v>22819.169921875</v>
+        <v>22742.40625</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1133,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4949999898672104</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C35" t="n">
-        <v>22379.1552734375</v>
+        <v>22302.2099609375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.675909085707231</v>
+        <v>0.6838636344129388</v>
       </c>
       <c r="E35" t="n">
-        <v>22378.03533380682</v>
+        <v>22301.16672585227</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1150,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5899999737739563</v>
+        <v>0.5224999785423279</v>
       </c>
       <c r="C36" t="n">
-        <v>21945.373046875</v>
+        <v>21869.16796875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7037500034679066</v>
+        <v>0.6615909012881193</v>
       </c>
       <c r="E36" t="n">
-        <v>21944.39364346591</v>
+        <v>21867.96360085227</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1167,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.4849999845027924</v>
+        <v>0.5149999856948853</v>
       </c>
       <c r="C37" t="n">
-        <v>21519.787109375</v>
+        <v>21443.40234375</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7027272798798301</v>
+        <v>0.7037499926306985</v>
       </c>
       <c r="E37" t="n">
-        <v>21518.66424005682</v>
+        <v>21442.16317471591</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1187,13 +1187,13 @@
         <v>0.5250000059604645</v>
       </c>
       <c r="C38" t="n">
-        <v>21101.8466796875</v>
+        <v>21025.443359375</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7096590995788574</v>
+        <v>0.6943181807344611</v>
       </c>
       <c r="E38" t="n">
-        <v>21100.54066051136</v>
+        <v>21024.46147017046</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1201,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5424999892711639</v>
+        <v>0.5400000065565109</v>
       </c>
       <c r="C39" t="n">
-        <v>20691.2939453125</v>
+        <v>20615.2236328125</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7259090867909518</v>
+        <v>0.7187499891627919</v>
       </c>
       <c r="E39" t="n">
-        <v>20689.98899147727</v>
+        <v>20614.22318892046</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1221,13 +1221,13 @@
         <v>0.550000011920929</v>
       </c>
       <c r="C40" t="n">
-        <v>20287.923828125</v>
+        <v>20212.375</v>
       </c>
       <c r="D40" t="n">
-        <v>0.6865908991206776</v>
+        <v>0.6939772692593661</v>
       </c>
       <c r="E40" t="n">
-        <v>20286.95259232954</v>
+        <v>20211.39790482954</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1235,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5550000071525574</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C41" t="n">
-        <v>19892.1533203125</v>
+        <v>19816.8740234375</v>
       </c>
       <c r="D41" t="n">
-        <v>0.701931817965074</v>
+        <v>0.7040909149430015</v>
       </c>
       <c r="E41" t="n">
-        <v>19891.13299005682</v>
+        <v>19815.70703125</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1252,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.489999994635582</v>
+        <v>0.4850000143051147</v>
       </c>
       <c r="C42" t="n">
-        <v>19503.4111328125</v>
+        <v>19428.5537109375</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7213636365803805</v>
+        <v>0.7169318199157715</v>
       </c>
       <c r="E42" t="n">
-        <v>19502.24751420454</v>
+        <v>19427.32776988636</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1269,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.4675000011920929</v>
+        <v>0.5049999952316284</v>
       </c>
       <c r="C43" t="n">
-        <v>19123.046875</v>
+        <v>19047.8291015625</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6115909110416066</v>
+        <v>0.66034089977091</v>
       </c>
       <c r="E43" t="n">
-        <v>19121.59783380682</v>
+        <v>19046.73330965909</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1286,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.4700000137090683</v>
+        <v>0.5400000065565109</v>
       </c>
       <c r="C44" t="n">
-        <v>18748.59375</v>
+        <v>18673.2978515625</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6070454608310353</v>
+        <v>0.6669318188320507</v>
       </c>
       <c r="E44" t="n">
-        <v>18747.27397017046</v>
+        <v>18672.46004971591</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1303,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5225000083446503</v>
+        <v>0.5425000041723251</v>
       </c>
       <c r="C45" t="n">
-        <v>18379.0625</v>
+        <v>18305.357421875</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6984090913425792</v>
+        <v>0.7196591008793224</v>
       </c>
       <c r="E45" t="n">
-        <v>18378.07723721591</v>
+        <v>18304.38938210227</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1320,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5674999952316284</v>
+        <v>0.5249999910593033</v>
       </c>
       <c r="C46" t="n">
-        <v>18017.921875</v>
+        <v>17944.7119140625</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7029545469717546</v>
+        <v>0.7114772634072737</v>
       </c>
       <c r="E46" t="n">
-        <v>18016.912109375</v>
+        <v>17943.65110085227</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5674999952316284</v>
+        <v>0.5174999833106995</v>
       </c>
       <c r="C47" t="n">
-        <v>17663.482421875</v>
+        <v>17590.6416015625</v>
       </c>
       <c r="D47" t="n">
-        <v>0.6825000047683716</v>
+        <v>0.6940909136425365</v>
       </c>
       <c r="E47" t="n">
-        <v>17662.52681107954</v>
+        <v>17589.61203835227</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1354,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5024999976158142</v>
+        <v>0.5549999922513962</v>
       </c>
       <c r="C48" t="n">
-        <v>17315.6484375</v>
+        <v>17242.869140625</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6897727251052856</v>
+        <v>0.7100000056353483</v>
       </c>
       <c r="E48" t="n">
-        <v>17314.44229403409</v>
+        <v>17241.87624289773</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1371,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5475000143051147</v>
+        <v>0.574999988079071</v>
       </c>
       <c r="C49" t="n">
-        <v>16973.3505859375</v>
+        <v>16901.4951171875</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7176136374473572</v>
+        <v>0.715113639831543</v>
       </c>
       <c r="E49" t="n">
-        <v>16972.36168323864</v>
+        <v>16900.470703125</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1388,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5799999833106995</v>
+        <v>0.5250000059604645</v>
       </c>
       <c r="C50" t="n">
-        <v>16637.8076171875</v>
+        <v>16566.455078125</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7079545476219871</v>
+        <v>0.7143181779167869</v>
       </c>
       <c r="E50" t="n">
-        <v>16636.88583096591</v>
+        <v>16565.49627130682</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,16 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5699999928474426</v>
+        <v>0.5349999964237213</v>
       </c>
       <c r="C51" t="n">
-        <v>16308.47705078125</v>
+        <v>16237.51904296875</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7077272805300626</v>
+        <v>0.7082954536784779</v>
       </c>
       <c r="E51" t="n">
-        <v>16307.51455965909</v>
+        <v>16236.58274147727</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1422,16 +1422,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5125000029802322</v>
+        <v>0.5225000083446503</v>
       </c>
       <c r="C52" t="n">
-        <v>15985.1357421875</v>
+        <v>15914.6484375</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7119318138469349</v>
+        <v>0.7078409194946289</v>
       </c>
       <c r="E52" t="n">
-        <v>15984.11550071023</v>
+        <v>15913.85129616477</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1439,16 +1439,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4849999845027924</v>
+        <v>0.4874999821186066</v>
       </c>
       <c r="C53" t="n">
-        <v>15667.9306640625</v>
+        <v>15597.91259765625</v>
       </c>
       <c r="D53" t="n">
-        <v>0.672727265141227</v>
+        <v>0.6734090989286249</v>
       </c>
       <c r="E53" t="n">
-        <v>15666.88876065341</v>
+        <v>15597.03364701705</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1456,16 +1456,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4749999940395355</v>
+        <v>0.489999994635582</v>
       </c>
       <c r="C54" t="n">
-        <v>15356.421875</v>
+        <v>15286.64794921875</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6884090846235101</v>
+        <v>0.7040908986871893</v>
       </c>
       <c r="E54" t="n">
-        <v>15355.25825639205</v>
+        <v>15285.8642578125</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1473,16 +1473,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4750000089406967</v>
+        <v>0.5350000113248825</v>
       </c>
       <c r="C55" t="n">
-        <v>15051.14404296875</v>
+        <v>14981.80419921875</v>
       </c>
       <c r="D55" t="n">
-        <v>0.634545461698012</v>
+        <v>0.6619318127632141</v>
       </c>
       <c r="E55" t="n">
-        <v>15050.27379261364</v>
+        <v>14981.05415482955</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1490,16 +1490,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5525000095367432</v>
+        <v>0.5625</v>
       </c>
       <c r="C56" t="n">
-        <v>14750.03271484375</v>
+        <v>14681.833984375</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6832954558459196</v>
+        <v>0.6925000006502325</v>
       </c>
       <c r="E56" t="n">
-        <v>14749.22620738636</v>
+        <v>14681.04163707386</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1507,16 +1507,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5599999874830246</v>
+        <v>0.5474999845027924</v>
       </c>
       <c r="C57" t="n">
-        <v>14455.60693359375</v>
+        <v>14387.845703125</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6322727203369141</v>
+        <v>0.6869318105957725</v>
       </c>
       <c r="E57" t="n">
-        <v>14454.83549360795</v>
+        <v>14386.99822443182</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1524,16 +1524,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5825000107288361</v>
+        <v>0.5324999839067459</v>
       </c>
       <c r="C58" t="n">
-        <v>14166.197265625</v>
+        <v>14099.03369140625</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7049999995665117</v>
+        <v>0.7239772839979692</v>
       </c>
       <c r="E58" t="n">
-        <v>14165.40580610795</v>
+        <v>14098.2734375</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1541,16 +1541,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.4950000047683716</v>
+        <v>0.5075000077486038</v>
       </c>
       <c r="C59" t="n">
-        <v>13882.5009765625</v>
+        <v>13816.0361328125</v>
       </c>
       <c r="D59" t="n">
-        <v>0.6735227270559832</v>
+        <v>0.6805681803009727</v>
       </c>
       <c r="E59" t="n">
-        <v>13881.72842684659</v>
+        <v>13815.21812855114</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1558,16 +1558,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5974999964237213</v>
+        <v>0.4850000143051147</v>
       </c>
       <c r="C60" t="n">
-        <v>13603.71484375</v>
+        <v>13538.23193359375</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7154545513066378</v>
+        <v>0.6739772666584362</v>
       </c>
       <c r="E60" t="n">
-        <v>13602.9267578125</v>
+        <v>13537.21573153409</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1575,16 +1575,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5199999958276749</v>
+        <v>0.4649999886751175</v>
       </c>
       <c r="C61" t="n">
-        <v>13330.44287109375</v>
+        <v>13265.10986328125</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7069318240339105</v>
+        <v>0.7001136432994496</v>
       </c>
       <c r="E61" t="n">
-        <v>13329.54456676136</v>
+        <v>13264.26544744318</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1592,16 +1592,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5149999856948853</v>
+        <v>0.5275000035762787</v>
       </c>
       <c r="C62" t="n">
-        <v>13062.0439453125</v>
+        <v>12997.544921875</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7034090865742076</v>
+        <v>0.6903409090909091</v>
       </c>
       <c r="E62" t="n">
-        <v>13061.18714488636</v>
+        <v>12996.82705965909</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1609,16 +1609,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5550000071525574</v>
+        <v>0.5</v>
       </c>
       <c r="C63" t="n">
-        <v>12798.70947265625</v>
+        <v>12734.79833984375</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7168181809512052</v>
+        <v>0.6930681792172518</v>
       </c>
       <c r="E63" t="n">
-        <v>12797.89328835227</v>
+        <v>12733.84534801136</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1626,16 +1626,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.5225000083446503</v>
       </c>
       <c r="C64" t="n">
-        <v>12540.3818359375</v>
+        <v>12477.033203125</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6918181777000427</v>
+        <v>0.6672727303071455</v>
       </c>
       <c r="E64" t="n">
-        <v>12539.58025568182</v>
+        <v>12476.22940340909</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1643,16 +1643,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5224999934434891</v>
+        <v>0.4700000137090683</v>
       </c>
       <c r="C65" t="n">
-        <v>12286.72509765625</v>
+        <v>12223.66748046875</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7067045406861738</v>
+        <v>0.7088636268268932</v>
       </c>
       <c r="E65" t="n">
-        <v>12285.87313565341</v>
+        <v>12222.904296875</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1660,16 +1660,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.5049999952316284</v>
       </c>
       <c r="C66" t="n">
-        <v>12037.84619140625</v>
+        <v>11975.4853515625</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6742045445875688</v>
+        <v>0.6869318160143766</v>
       </c>
       <c r="E66" t="n">
-        <v>12037.12331321023</v>
+        <v>11974.72665127841</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1677,16 +1677,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.502499982714653</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C67" t="n">
-        <v>11793.56103515625</v>
+        <v>11732.07421875</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6569318229501898</v>
+        <v>0.6676136417822405</v>
       </c>
       <c r="E67" t="n">
-        <v>11792.90367542614</v>
+        <v>11731.37775213068</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1694,16 +1694,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5249999761581421</v>
+        <v>0.4874999970197678</v>
       </c>
       <c r="C68" t="n">
-        <v>11553.890625</v>
+        <v>11492.93603515625</v>
       </c>
       <c r="D68" t="n">
-        <v>0.648295440457084</v>
+        <v>0.6527272679589011</v>
       </c>
       <c r="E68" t="n">
-        <v>11553.20765269886</v>
+        <v>11492.23064630682</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1711,16 +1711,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5199999958276749</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C69" t="n">
-        <v>11319.50537109375</v>
+        <v>11258.66455078125</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6136363582177595</v>
+        <v>0.6253409060564908</v>
       </c>
       <c r="E69" t="n">
-        <v>11318.90021306818</v>
+        <v>11258.06853693182</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1728,16 +1728,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5200000107288361</v>
+        <v>0.512499988079071</v>
       </c>
       <c r="C70" t="n">
-        <v>11087.97119140625</v>
+        <v>11027.9775390625</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7129545374350115</v>
+        <v>0.697159084406766</v>
       </c>
       <c r="E70" t="n">
-        <v>11087.2880859375</v>
+        <v>11027.39799360795</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1745,16 +1745,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5449999868869781</v>
+        <v>0.5174999982118607</v>
       </c>
       <c r="C71" t="n">
-        <v>10861.71240234375</v>
+        <v>10802.33251953125</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6721590919928118</v>
+        <v>0.6905681761828336</v>
       </c>
       <c r="E71" t="n">
-        <v>10861.04083806818</v>
+        <v>10801.62615411932</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1762,16 +1762,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5175000131130219</v>
+        <v>0.5075000077486038</v>
       </c>
       <c r="C72" t="n">
-        <v>10639.5380859375</v>
+        <v>10580.697265625</v>
       </c>
       <c r="D72" t="n">
-        <v>0.6840909123420715</v>
+        <v>0.6969318281520497</v>
       </c>
       <c r="E72" t="n">
-        <v>10638.91548295455</v>
+        <v>10580.009765625</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1779,16 +1779,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.4675000011920929</v>
+        <v>0.4924999922513962</v>
       </c>
       <c r="C73" t="n">
-        <v>10421.77734375</v>
+        <v>10363.3798828125</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6343181783502753</v>
+        <v>0.6861363703554327</v>
       </c>
       <c r="E73" t="n">
-        <v>10421.19762073864</v>
+        <v>10362.70978338068</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1796,16 +1796,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4900000095367432</v>
+        <v>0.4924999922513962</v>
       </c>
       <c r="C74" t="n">
-        <v>10208.11083984375</v>
+        <v>10150.31640625</v>
       </c>
       <c r="D74" t="n">
-        <v>0.6451136253096841</v>
+        <v>0.6739772720770403</v>
       </c>
       <c r="E74" t="n">
-        <v>10207.34073153409</v>
+        <v>10149.61878551136</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1813,16 +1813,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5550000071525574</v>
+        <v>0.4625000059604645</v>
       </c>
       <c r="C75" t="n">
-        <v>9998.03466796875</v>
+        <v>9941.08056640625</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6651136387478221</v>
+        <v>0.6715909134257924</v>
       </c>
       <c r="E75" t="n">
-        <v>9997.414240056818</v>
+        <v>9940.313654119318</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1830,16 +1830,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5674999952316284</v>
+        <v>0.4899999797344208</v>
       </c>
       <c r="C76" t="n">
-        <v>9792.10595703125</v>
+        <v>9735.66943359375</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7054545500061729</v>
+        <v>0.6760227192531932</v>
       </c>
       <c r="E76" t="n">
-        <v>9791.49129971591</v>
+        <v>9735.0390625</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1847,16 +1847,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6100000143051147</v>
+        <v>0.512499988079071</v>
       </c>
       <c r="C77" t="n">
-        <v>9590.1630859375</v>
+        <v>9534.1943359375</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7064772681756453</v>
+        <v>0.6788636391813104</v>
       </c>
       <c r="E77" t="n">
-        <v>9589.597833806818</v>
+        <v>9533.656072443182</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1864,16 +1864,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5399999916553497</v>
+        <v>0.574999988079071</v>
       </c>
       <c r="C78" t="n">
-        <v>9392.451171875</v>
+        <v>9336.6181640625</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6665909127755598</v>
+        <v>0.6856818199157715</v>
       </c>
       <c r="E78" t="n">
-        <v>9391.735884232954</v>
+        <v>9336.125532670454</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1881,16 +1881,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.4999999850988388</v>
+        <v>0.5249999910593033</v>
       </c>
       <c r="C79" t="n">
-        <v>9198.044921875</v>
+        <v>9143.146484375</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6839772679589011</v>
+        <v>0.6612499952316284</v>
       </c>
       <c r="E79" t="n">
-        <v>9197.218483664772</v>
+        <v>9142.534889914772</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1898,16 +1898,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5125000029802322</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="C80" t="n">
-        <v>9007.48681640625</v>
+        <v>8953.00830078125</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6771590872244402</v>
+        <v>0.692727267742157</v>
       </c>
       <c r="E80" t="n">
-        <v>9006.717240767046</v>
+        <v>8952.330255681818</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1915,16 +1915,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5499999821186066</v>
+        <v>0.5824999809265137</v>
       </c>
       <c r="C81" t="n">
-        <v>8820.3486328125</v>
+        <v>8766.513671875</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6970454508608038</v>
+        <v>0.6760227246717974</v>
       </c>
       <c r="E81" t="n">
-        <v>8819.617631392046</v>
+        <v>8765.973455255682</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,62 +1962,62 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.008130081300813009</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0.008547008547008548</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.01626016260162602</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.0170940170940171</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.01626016260162602</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.0170940170940171</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04878048780487805</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03418803418803419</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04878048780487805</v>
+        <v>0.02439024390243903</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.03418803418803419</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C7" t="n">
         <v>0.06504065040650407</v>
@@ -2025,10 +2025,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.03418803418803419</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C8" t="n">
         <v>0.06504065040650407</v>
@@ -2036,57 +2036,57 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.03418803418803419</v>
+        <v>0.04273504273504274</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07317073170731707</v>
+        <v>0.08943089430894309</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07317073170731707</v>
+        <v>0.08943089430894309</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08130081300813008</v>
+        <v>0.1219512195121951</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.08547008547008547</v>
+        <v>0.09401709401709402</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08130081300813008</v>
+        <v>0.1219512195121951</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.08547008547008547</v>
+        <v>0.09401709401709402</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1056910569105691</v>
+        <v>0.1300813008130081</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2094,10 +2094,10 @@
         <v>0.1025641025641026</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1056910569105691</v>
+        <v>0.1300813008130081</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2105,1098 +2105,1021 @@
         <v>0.1025641025641026</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1138211382113821</v>
+        <v>0.1463414634146341</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1138211382113821</v>
+        <v>0.1463414634146341</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1300813008130081</v>
+        <v>0.1544715447154472</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1367521367521368</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1300813008130081</v>
+        <v>0.1544715447154472</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1367521367521368</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1382113821138211</v>
+        <v>0.2195121951219512</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1452991452991453</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1382113821138211</v>
+        <v>0.2195121951219512</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1452991452991453</v>
+        <v>0.1367521367521368</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1544715447154472</v>
+        <v>0.2357723577235772</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1709401709401709</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1544715447154472</v>
+        <v>0.2357723577235772</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1709401709401709</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1626016260162602</v>
+        <v>0.2520325203252032</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1794871794871795</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1626016260162602</v>
+        <v>0.2520325203252032</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1794871794871795</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1788617886178862</v>
+        <v>0.3414634146341464</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.188034188034188</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1788617886178862</v>
+        <v>0.3414634146341464</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.188034188034188</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2276422764227642</v>
+        <v>0.3495934959349594</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1965811965811966</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2276422764227642</v>
+        <v>0.3495934959349594</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1965811965811966</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.3821138211382114</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2136752136752137</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2439024390243902</v>
+        <v>0.3821138211382114</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2136752136752137</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2520325203252032</v>
+        <v>0.3902439024390244</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2520325203252032</v>
+        <v>0.3902439024390244</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2682926829268293</v>
+        <v>0.4146341463414634</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2393162393162393</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2682926829268293</v>
+        <v>0.4146341463414634</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2393162393162393</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2845528455284553</v>
+        <v>0.4308943089430894</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2845528455284553</v>
+        <v>0.4308943089430894</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2564102564102564</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.4552845528455284</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2735042735042735</v>
+        <v>0.2991452991452991</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.4552845528455284</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2735042735042735</v>
+        <v>0.2991452991452991</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3252032520325203</v>
+        <v>0.4634146341463415</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2905982905982906</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3252032520325203</v>
+        <v>0.4634146341463415</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2905982905982906</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3577235772357724</v>
+        <v>0.4715447154471545</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2991452991452991</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3577235772357724</v>
+        <v>0.4715447154471545</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.2991452991452991</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3739837398373984</v>
+        <v>0.4959349593495935</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3162393162393162</v>
+        <v>0.3504273504273504</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3739837398373984</v>
+        <v>0.4959349593495935</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3162393162393162</v>
+        <v>0.3504273504273504</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3821138211382114</v>
+        <v>0.5365853658536586</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3247863247863248</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3821138211382114</v>
+        <v>0.5365853658536586</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3247863247863248</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.5528455284552846</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.358974358974359</v>
+        <v>0.3675213675213675</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.5528455284552846</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.358974358974359</v>
+        <v>0.3675213675213675</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4065040650406504</v>
+        <v>0.5691056910569106</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3675213675213675</v>
+        <v>0.3760683760683761</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4065040650406504</v>
+        <v>0.5691056910569106</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3675213675213675</v>
+        <v>0.3760683760683761</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4227642276422764</v>
+        <v>0.5934959349593496</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3760683760683761</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4227642276422764</v>
+        <v>0.5934959349593496</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.3760683760683761</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4552845528455284</v>
+        <v>0.6097560975609756</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4552845528455284</v>
+        <v>0.6097560975609756</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4634146341463415</v>
+        <v>0.6260162601626016</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.3931623931623932</v>
+        <v>0.4188034188034188</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4634146341463415</v>
+        <v>0.6260162601626016</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.3931623931623932</v>
+        <v>0.4188034188034188</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4715447154471545</v>
+        <v>0.6585365853658537</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4102564102564102</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4715447154471545</v>
+        <v>0.6585365853658537</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4102564102564102</v>
+        <v>0.4273504273504273</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4188034188034188</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4878048780487805</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.4188034188034188</v>
+        <v>0.5299145299145299</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5528455284552846</v>
+        <v>0.6747967479674797</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5528455284552846</v>
+        <v>0.6747967479674797</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4358974358974359</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5609756097560976</v>
+        <v>0.6910569105691057</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5609756097560976</v>
+        <v>0.6910569105691057</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5772357723577236</v>
+        <v>0.6991869918699187</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.4786324786324787</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5772357723577236</v>
+        <v>0.6991869918699187</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.4786324786324787</v>
+        <v>0.5726495726495726</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5934959349593496</v>
+        <v>0.7235772357723578</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5042735042735043</v>
+        <v>0.5811965811965812</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5934959349593496</v>
+        <v>0.7235772357723578</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5042735042735043</v>
+        <v>0.5811965811965812</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6178861788617886</v>
+        <v>0.7398373983739838</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5128205128205128</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6178861788617886</v>
+        <v>0.7398373983739838</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5128205128205128</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6504065040650406</v>
+        <v>0.7479674796747967</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.5213675213675214</v>
+        <v>0.5982905982905983</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6504065040650406</v>
+        <v>0.7479674796747967</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.5213675213675214</v>
+        <v>0.5982905982905983</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7642276422764228</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.5470085470085471</v>
+        <v>0.6068376068376068</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7642276422764228</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.5470085470085471</v>
+        <v>0.6068376068376068</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6747967479674797</v>
+        <v>0.7804878048780488</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C76" t="n">
-        <v>0.6747967479674797</v>
+        <v>0.7804878048780488</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6991869918699187</v>
+        <v>0.7886178861788617</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.5726495726495726</v>
+        <v>0.6495726495726496</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6991869918699187</v>
+        <v>0.7886178861788617</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.5726495726495726</v>
+        <v>0.6495726495726496</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7073170731707317</v>
+        <v>0.7967479674796748</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6324786324786325</v>
+        <v>0.6752136752136753</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7073170731707317</v>
+        <v>0.7967479674796748</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.6324786324786325</v>
+        <v>0.6752136752136753</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7317073170731707</v>
+        <v>0.8048780487804879</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6581196581196581</v>
+        <v>0.6837606837606838</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7317073170731707</v>
+        <v>0.8048780487804879</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.6581196581196581</v>
+        <v>0.6837606837606838</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7967479674796748</v>
+        <v>0.8130081300813008</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7967479674796748</v>
+        <v>0.8130081300813008</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8211382113821138</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.6837606837606838</v>
+        <v>0.7094017094017094</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8211382113821138</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.6837606837606838</v>
+        <v>0.7094017094017094</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8211382113821138</v>
+        <v>0.8455284552845529</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8211382113821138</v>
+        <v>0.8455284552845529</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8373983739837398</v>
+        <v>0.8536585365853658</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.7094017094017094</v>
+        <v>0.7606837606837606</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8373983739837398</v>
+        <v>0.8536585365853658</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.7094017094017094</v>
+        <v>0.7606837606837606</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8455284552845529</v>
+        <v>0.8699186991869918</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.717948717948718</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8455284552845529</v>
+        <v>0.8699186991869918</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.717948717948718</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8699186991869918</v>
+        <v>0.8943089430894309</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.7264957264957265</v>
+        <v>0.8376068376068376</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8699186991869918</v>
+        <v>0.8943089430894309</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.7264957264957265</v>
+        <v>0.8376068376068376</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.9105691056910569</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.7606837606837606</v>
+        <v>0.8632478632478633</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.9105691056910569</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.7606837606837606</v>
+        <v>0.8632478632478633</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8943089430894309</v>
+        <v>0.9186991869918699</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.7863247863247863</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8943089430894309</v>
+        <v>0.9186991869918699</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.7863247863247863</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.9349593495934959</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.811965811965812</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.9349593495934959</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.811965811965812</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.959349593495935</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.8376068376068376</v>
+        <v>0.905982905982906</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.959349593495935</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.8376068376068376</v>
+        <v>0.905982905982906</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9186991869918699</v>
+        <v>0.967479674796748</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.8717948717948718</v>
+        <v>0.9914529914529915</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9186991869918699</v>
+        <v>0.967479674796748</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.8717948717948718</v>
+        <v>0.9914529914529915</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C105" t="n">
-        <v>0.926829268292683</v>
+        <v>0.983739837398374</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.9316239316239316</v>
+        <v>1</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C106" t="n">
-        <v>0.926829268292683</v>
+        <v>0.983739837398374</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.9316239316239316</v>
+        <v>1</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="n">
-        <v>0.9658119658119658</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.5649364185949552</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="n">
-        <v>0.9658119658119658</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.5649364185949552</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.975609756097561</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.5649364185949552</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.975609756097561</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.5649364185949552</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.9918699186991869</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="n">
-        <v>0.9914529914529915</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.5649364185949552</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.9918699186991869</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="n">
-        <v>0.9914529914529915</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.5649364185949552</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="n">
-        <v>1</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.5649364185949552</v>
-      </c>
-      <c r="C114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3211,7 +3134,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C112"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3235,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008547008547008548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3246,95 +3169,95 @@
         <v>0.008130081300813009</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008547008547008548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.008130081300813009</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02564102564102564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.02439024390243903</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02564102564102564</v>
+        <v>0.008547008547008548</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.02439024390243903</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03418803418803419</v>
+        <v>0.008547008547008548</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.04878048780487805</v>
+        <v>0.03252032520325204</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03418803418803419</v>
+        <v>0.09401709401709402</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.04878048780487805</v>
+        <v>0.04065040650406504</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06837606837606838</v>
+        <v>0.09401709401709402</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.07317073170731707</v>
+        <v>0.04065040650406504</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06837606837606838</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.07317073170731707</v>
+        <v>0.06504065040650407</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.1025641025641026</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.08130081300813008</v>
+        <v>0.06504065040650407</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C11" t="n">
         <v>0.1282051282051282</v>
@@ -3345,21 +3268,21 @@
         <v>0.08130081300813008</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1623931623931624</v>
+        <v>0.1282051282051282</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.08943089430894309</v>
+        <v>0.08130081300813008</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1623931623931624</v>
+        <v>0.1367521367521368</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3367,32 +3290,32 @@
         <v>0.08943089430894309</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C14" t="n">
-        <v>0.188034188034188</v>
+        <v>0.1367521367521368</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.08943089430894309</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C15" t="n">
-        <v>0.188034188034188</v>
+        <v>0.1623931623931624</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.0975609756097561</v>
+        <v>0.1056910569105691</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2136752136752137</v>
+        <v>0.1623931623931624</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3400,29 +3323,29 @@
         <v>0.1056910569105691</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2136752136752137</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1056910569105691</v>
+        <v>0.1300813008130081</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2393162393162393</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1219512195121951</v>
+        <v>0.1300813008130081</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C19" t="n">
         <v>0.2393162393162393</v>
@@ -3430,32 +3353,32 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1219512195121951</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2735042735042735</v>
+        <v>0.2393162393162393</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1300813008130081</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2735042735042735</v>
+        <v>0.282051282051282</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1300813008130081</v>
+        <v>0.1544715447154472</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C22" t="n">
         <v>0.282051282051282</v>
@@ -3466,18 +3389,18 @@
         <v>0.1544715447154472</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C23" t="n">
-        <v>0.282051282051282</v>
+        <v>0.2905982905982906</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1544715447154472</v>
+        <v>0.1788617886178862</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C24" t="n">
         <v>0.2905982905982906</v>
@@ -3485,21 +3408,21 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1626016260162602</v>
+        <v>0.1788617886178862</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2905982905982906</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1626016260162602</v>
+        <v>0.1869918699186992</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C26" t="n">
         <v>0.3076923076923077</v>
@@ -3507,21 +3430,21 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1788617886178862</v>
+        <v>0.1869918699186992</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3162393162393162</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1788617886178862</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C28" t="n">
         <v>0.3162393162393162</v>
@@ -3532,21 +3455,21 @@
         <v>0.1951219512195122</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3162393162393162</v>
+        <v>0.3247863247863248</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.1951219512195122</v>
+        <v>0.2032520325203252</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3247863247863248</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3554,260 +3477,260 @@
         <v>0.2032520325203252</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3504273504273504</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2032520325203252</v>
+        <v>0.2113821138211382</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3418803418803419</v>
+        <v>0.3504273504273504</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2682926829268293</v>
+        <v>0.2113821138211382</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3418803418803419</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2682926829268293</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3675213675213675</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3675213675213675</v>
+        <v>0.3931623931623932</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.2357723577235772</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C36" t="n">
-        <v>0.4273504273504273</v>
+        <v>0.3931623931623932</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.3008130081300813</v>
+        <v>0.2357723577235772</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4273504273504273</v>
+        <v>0.4017094017094017</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.3008130081300813</v>
+        <v>0.2520325203252032</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4017094017094017</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.3252032520325203</v>
+        <v>0.2520325203252032</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4102564102564102</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.3252032520325203</v>
+        <v>0.2601626016260163</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C40" t="n">
-        <v>0.452991452991453</v>
+        <v>0.4102564102564102</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2601626016260163</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C41" t="n">
-        <v>0.452991452991453</v>
+        <v>0.4188034188034188</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2764227642276423</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4786324786324787</v>
+        <v>0.4188034188034188</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3495934959349594</v>
+        <v>0.2764227642276423</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4786324786324787</v>
+        <v>0.4273504273504273</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3495934959349594</v>
+        <v>0.3008130081300813</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4871794871794872</v>
+        <v>0.4273504273504273</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3821138211382114</v>
+        <v>0.3008130081300813</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4871794871794872</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3821138211382114</v>
+        <v>0.3089430894308943</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4957264957264957</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.4065040650406504</v>
+        <v>0.3089430894308943</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4957264957264957</v>
+        <v>0.452991452991453</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.4065040650406504</v>
+        <v>0.3252032520325203</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5213675213675214</v>
+        <v>0.452991452991453</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.4227642276422764</v>
+        <v>0.3252032520325203</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5213675213675214</v>
+        <v>0.4700854700854701</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.4227642276422764</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.4700854700854701</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.5726495726495726</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.4390243902439024</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5641025641025641</v>
+        <v>0.5726495726495726</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.4471544715447154</v>
+        <v>0.3414634146341464</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5641025641025641</v>
+        <v>0.5811965811965812</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.4471544715447154</v>
+        <v>0.3739837398373984</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C54" t="n">
         <v>0.5811965811965812</v>
@@ -3815,21 +3738,21 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.5121951219512195</v>
+        <v>0.3739837398373984</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5811965811965812</v>
+        <v>0.5897435897435898</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.5121951219512195</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C56" t="n">
         <v>0.5897435897435898</v>
@@ -3837,175 +3760,175 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.5284552845528455</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5897435897435898</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.5284552845528455</v>
+        <v>0.4065040650406504</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6068376068376068</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.4065040650406504</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6068376068376068</v>
+        <v>0.6239316239316239</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.5365853658536586</v>
+        <v>0.4308943089430894</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6239316239316239</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.5447154471544715</v>
+        <v>0.4308943089430894</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6324786324786325</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.5447154471544715</v>
+        <v>0.4471544715447154</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6239316239316239</v>
+        <v>0.6324786324786325</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.5772357723577236</v>
+        <v>0.4471544715447154</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6239316239316239</v>
+        <v>0.6410256410256411</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5772357723577236</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6324786324786325</v>
+        <v>0.6410256410256411</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5934959349593496</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6324786324786325</v>
+        <v>0.6495726495726496</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5934959349593496</v>
+        <v>0.5040650406504065</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C66" t="n">
-        <v>0.6410256410256411</v>
+        <v>0.6495726495726496</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.6097560975609756</v>
+        <v>0.5040650406504065</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6410256410256411</v>
+        <v>0.6837606837606838</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.6097560975609756</v>
+        <v>0.5284552845528455</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6752136752136753</v>
+        <v>0.6837606837606838</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.6178861788617886</v>
+        <v>0.5284552845528455</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6752136752136753</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.6178861788617886</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6837606837606838</v>
+        <v>0.6923076923076923</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.6260162601626016</v>
+        <v>0.5365853658536586</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6837606837606838</v>
+        <v>0.7008547008547008</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.6260162601626016</v>
+        <v>0.5447154471544715</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C72" t="n">
         <v>0.7008547008547008</v>
@@ -4013,222 +3936,222 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.6422764227642277</v>
+        <v>0.5447154471544715</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7008547008547008</v>
+        <v>0.7350427350427351</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.6422764227642277</v>
+        <v>0.5691056910569106</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7094017094017094</v>
+        <v>0.7350427350427351</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6747967479674797</v>
+        <v>0.5691056910569106</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7094017094017094</v>
+        <v>0.7521367521367521</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.6747967479674797</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7264957264957265</v>
+        <v>0.7521367521367521</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.7073170731707317</v>
+        <v>0.5853658536585366</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7264957264957265</v>
+        <v>0.7948717948717948</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.7073170731707317</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7435897435897436</v>
+        <v>0.7948717948717948</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.7154471544715447</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7435897435897436</v>
+        <v>0.811965811965812</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.7154471544715447</v>
+        <v>0.6178861788617886</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7606837606837606</v>
+        <v>0.811965811965812</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.7317073170731707</v>
+        <v>0.6178861788617886</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7606837606837606</v>
+        <v>0.8205128205128205</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.7317073170731707</v>
+        <v>0.6504065040650406</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8205128205128205</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.7479674796747967</v>
+        <v>0.6504065040650406</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.8290598290598291</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.7479674796747967</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7863247863247863</v>
+        <v>0.8290598290598291</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.7560975609756098</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7863247863247863</v>
+        <v>0.8376068376068376</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.7560975609756098</v>
+        <v>0.7479674796747967</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8034188034188035</v>
+        <v>0.8376068376068376</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.7723577235772358</v>
+        <v>0.7479674796747967</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8034188034188035</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.7723577235772358</v>
+        <v>0.7642276422764228</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C88" t="n">
-        <v>0.811965811965812</v>
+        <v>0.8461538461538461</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.8211382113821138</v>
+        <v>0.7642276422764228</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C89" t="n">
-        <v>0.811965811965812</v>
+        <v>0.8632478632478633</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.8211382113821138</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8205128205128205</v>
+        <v>0.8632478632478633</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.8373983739837398</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8205128205128205</v>
+        <v>0.8717948717948718</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.8373983739837398</v>
+        <v>0.8455284552845529</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8290598290598291</v>
+        <v>0.8717948717948718</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4236,43 +4159,43 @@
         <v>0.8455284552845529</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8290598290598291</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.8455284552845529</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8547008547008547</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.8617886178861789</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8547008547008547</v>
+        <v>0.8974358974358975</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.8617886178861789</v>
+        <v>0.8699186991869918</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.8974358974358975</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -4280,174 +4203,130 @@
         <v>0.8699186991869918</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.905982905982906</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.8699186991869918</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8717948717948718</v>
+        <v>0.905982905982906</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.8861788617886179</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8717948717948718</v>
+        <v>0.9145299145299145</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.8861788617886179</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8974358974358975</v>
+        <v>0.9145299145299145</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.8943089430894309</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8974358974358975</v>
+        <v>0.9572649572649573</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.8943089430894309</v>
+        <v>0.9349593495934959</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9145299145299145</v>
+        <v>0.9572649572649573</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.9186991869918699</v>
+        <v>0.9349593495934959</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9145299145299145</v>
+        <v>0.9658119658119658</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.9186991869918699</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9658119658119658</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.926829268292683</v>
+        <v>0.975609756097561</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9743589743589743</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.926829268292683</v>
+        <v>0.983739837398374</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9658119658119658</v>
+        <v>0.9743589743589743</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.9349593495934959</v>
+        <v>0.983739837398374</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9658119658119658</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.9349593495934959</v>
+        <v>1</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5649364185949552</v>
+        <v>0.6183031061079841</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.5649364185949552</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.9743589743589743</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="n">
-        <v>0.9512195121951219</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.5649364185949552</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.9829059829059829</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="n">
-        <v>1</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.5649364185949552</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.9829059829059829</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="n">
-        <v>1</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.5649364185949552</v>
-      </c>
-      <c r="C112" t="n">
         <v>1</v>
       </c>
     </row>
